--- a/รายได้โดยเฉลี่ยต่อเดือนต่อครัวเรือน รายจังหวัด พ.ศ. 2545 - 2560.xlsx
+++ b/รายได้โดยเฉลี่ยต่อเดือนต่อครัวเรือน รายจังหวัด พ.ศ. 2545 - 2560.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD441CE-6081-4F85-9C7E-7DA624EDF632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9CF253-64FB-4A53-BD52-FB7B67E06C5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2475" windowWidth="16200" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +357,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,15 +455,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -467,6 +470,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X53" sqref="X53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -918,126 +932,126 @@
       <c r="K2" s="3">
         <v>45707.31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="17">
         <f>C2*12</f>
         <v>355068.96</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="17">
         <f t="shared" ref="N2:U18" si="0">D2*12</f>
         <v>358112.16000000003</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="17">
         <f t="shared" si="0"/>
         <v>439896</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="17">
         <f t="shared" si="0"/>
         <v>468240</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="17">
         <f t="shared" si="0"/>
         <v>508557.9657650796</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="17">
         <f t="shared" si="0"/>
         <v>587412</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="17">
         <f t="shared" si="0"/>
         <v>590289.60000000009</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="17">
         <f t="shared" si="0"/>
         <v>546860.39999999991</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="17">
         <f t="shared" si="0"/>
         <v>548487.72</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <f>AVERAGE(C4:C28)</f>
         <v>15024.1968</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <f t="shared" ref="D3:K3" si="1">AVERAGE(D4:D28)</f>
         <v>16325.800800000001</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <f t="shared" si="1"/>
         <v>19084.48</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <f t="shared" si="1"/>
         <v>19412.04</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <f t="shared" si="1"/>
         <v>21512.334567595812</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <f t="shared" si="1"/>
         <v>21650.627999999997</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <f t="shared" si="1"/>
         <v>26407.972000000002</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <f t="shared" si="1"/>
         <v>26761.695999999996</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f t="shared" si="1"/>
         <v>28234.49879999999</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10">
         <f t="shared" ref="M3" si="2">AVERAGE(M4:M28)</f>
         <v>180290.36159999997</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="10">
         <f>AVERAGE(N4:N28)</f>
         <v>195909.60959999994</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <f t="shared" ref="O3" si="3">AVERAGE(O4:O28)</f>
         <v>229013.76000000001</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
         <f t="shared" ref="P3" si="4">AVERAGE(P4:P28)</f>
         <v>232944.48</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="10">
         <f t="shared" ref="Q3" si="5">AVERAGE(Q4:Q28)</f>
         <v>258148.01481114983</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="10">
         <f t="shared" ref="R3" si="6">AVERAGE(R4:R28)</f>
         <v>259807.53599999996</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="10">
         <f t="shared" ref="S3" si="7">AVERAGE(S4:S28)</f>
         <v>316895.66399999993</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="10">
         <f t="shared" ref="T3:U3" si="8">AVERAGE(T4:T28)</f>
         <v>321140.35200000001</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="10">
         <f t="shared" si="8"/>
         <v>338813.98560000001</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1070,45 +1084,45 @@
       <c r="K4" s="3">
         <v>28711.77</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="17">
         <f t="shared" ref="M4:M70" si="9">C4*12</f>
         <v>236159.27999999997</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="17">
         <f t="shared" ref="N4:N70" si="10">D4*12</f>
         <v>239358.48</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="17">
         <f t="shared" ref="O4:O70" si="11">E4*12</f>
         <v>244584</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="17">
         <f t="shared" ref="P4:P70" si="12">F4*12</f>
         <v>255624</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="17">
         <f t="shared" ref="Q4:Q70" si="13">G4*12</f>
         <v>280312.53557433002</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="17">
         <f t="shared" ref="R4:R70" si="14">H4*12</f>
         <v>285574.80000000005</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="17">
         <f t="shared" ref="S4:S70" si="15">I4*12</f>
         <v>354903.6</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="17">
         <f t="shared" ref="T4:U70" si="16">J4*12</f>
         <v>305486.40000000002</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="17">
         <f t="shared" si="0"/>
         <v>344541.24</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1139,45 +1153,45 @@
       <c r="K5" s="3">
         <v>40860.879999999997</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="17">
         <f t="shared" si="9"/>
         <v>349429.56</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="17">
         <f t="shared" si="10"/>
         <v>319895.64</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="17">
         <f t="shared" si="11"/>
         <v>373824</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="17">
         <f t="shared" si="12"/>
         <v>392916</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="17">
         <f t="shared" si="13"/>
         <v>415515.31350795482</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="17">
         <f t="shared" si="14"/>
         <v>421436.39999999997</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="17">
         <f t="shared" si="15"/>
         <v>367963.19999999995</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="17">
         <f t="shared" si="16"/>
         <v>442608</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="17">
         <f t="shared" si="0"/>
         <v>490330.55999999994</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1208,45 +1222,45 @@
       <c r="K6" s="3">
         <v>41483.71</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="17">
         <f t="shared" si="9"/>
         <v>274059.24</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="17">
         <f t="shared" si="10"/>
         <v>258356.03999999998</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="17">
         <f t="shared" si="11"/>
         <v>301716</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="17">
         <f t="shared" si="12"/>
         <v>313284</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="17">
         <f t="shared" si="13"/>
         <v>320234.6761839948</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="17">
         <f t="shared" si="14"/>
         <v>259386</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="17">
         <f t="shared" si="15"/>
         <v>401535.60000000003</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="17">
         <f t="shared" si="16"/>
         <v>492682.80000000005</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="17">
         <f t="shared" si="0"/>
         <v>497804.52</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1277,45 +1291,45 @@
       <c r="K7" s="3">
         <v>28777.58</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="17">
         <f t="shared" si="9"/>
         <v>159832.91999999998</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="17">
         <f t="shared" si="10"/>
         <v>179757.36000000002</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="17">
         <f t="shared" si="11"/>
         <v>236112</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="17">
         <f t="shared" si="12"/>
         <v>260112</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="17">
         <f t="shared" si="13"/>
         <v>309839.7493279872</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="17">
         <f t="shared" si="14"/>
         <v>267620.40000000002</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="17">
         <f t="shared" si="15"/>
         <v>317778</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="17">
         <f t="shared" si="16"/>
         <v>340552.80000000005</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="17">
         <f t="shared" si="0"/>
         <v>345330.96</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1346,45 +1360,45 @@
       <c r="K8" s="3">
         <v>26484.17</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="17">
         <f t="shared" si="9"/>
         <v>139835.04</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="17">
         <f t="shared" si="10"/>
         <v>154257.12</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="17">
         <f t="shared" si="11"/>
         <v>219600</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="17">
         <f t="shared" si="12"/>
         <v>212448</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="17">
         <f t="shared" si="13"/>
         <v>306077.09597328241</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="17">
         <f t="shared" si="14"/>
         <v>253678.80000000002</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="17">
         <f t="shared" si="15"/>
         <v>343695.6</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="17">
         <f t="shared" si="16"/>
         <v>280207.19999999995</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="17">
         <f t="shared" si="0"/>
         <v>317810.03999999998</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1415,45 +1429,45 @@
       <c r="K9" s="3">
         <v>19795.669999999998</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="17">
         <f t="shared" si="9"/>
         <v>132124.91999999998</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="17">
         <f t="shared" si="10"/>
         <v>180039.12</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="11"/>
         <v>239220</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="17">
         <f t="shared" si="12"/>
         <v>202224</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="17">
         <f t="shared" si="13"/>
         <v>268854.03574267682</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="17">
         <f t="shared" si="14"/>
         <v>206132.40000000002</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="17">
         <f t="shared" si="15"/>
         <v>281106</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="17">
         <f t="shared" si="16"/>
         <v>275461.19999999995</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="17">
         <f t="shared" si="0"/>
         <v>237548.03999999998</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1484,45 +1498,45 @@
       <c r="K10" s="3">
         <v>26865.56</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="17">
         <f t="shared" si="9"/>
         <v>173211.12</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="17">
         <f t="shared" si="10"/>
         <v>177453.72</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="17">
         <f t="shared" si="11"/>
         <v>222120</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="17">
         <f t="shared" si="12"/>
         <v>246696</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="17">
         <f t="shared" si="13"/>
         <v>305030.07807361201</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="17">
         <f t="shared" si="14"/>
         <v>312812.40000000002</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="17">
         <f t="shared" si="15"/>
         <v>337384.80000000005</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="17">
         <f t="shared" si="16"/>
         <v>313346.40000000002</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="17">
         <f t="shared" si="0"/>
         <v>322386.72000000003</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1553,45 +1567,45 @@
       <c r="K11" s="3">
         <v>26385.66</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="17">
         <f t="shared" si="9"/>
         <v>133425.24</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="17">
         <f t="shared" si="10"/>
         <v>160599.12</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="17">
         <f t="shared" si="11"/>
         <v>156696</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="17">
         <f t="shared" si="12"/>
         <v>167940</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="17">
         <f t="shared" si="13"/>
         <v>224630.07737729518</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="17">
         <f t="shared" si="14"/>
         <v>242167.19999999998</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="17">
         <f t="shared" si="15"/>
         <v>393042</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="17">
         <f t="shared" si="16"/>
         <v>264706.80000000005</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="17">
         <f t="shared" si="0"/>
         <v>316627.92</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1622,45 +1636,45 @@
       <c r="K12" s="3">
         <v>35378.49</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="17">
         <f t="shared" si="9"/>
         <v>176120.52</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="17">
         <f t="shared" si="10"/>
         <v>224906.03999999998</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="17">
         <f t="shared" si="11"/>
         <v>245616</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="17">
         <f t="shared" si="12"/>
         <v>268356</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="17">
         <f t="shared" si="13"/>
         <v>263368.96598539082</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="17">
         <f t="shared" si="14"/>
         <v>325369.19999999995</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="17">
         <f t="shared" si="15"/>
         <v>394003.19999999995</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="17">
         <f t="shared" si="16"/>
         <v>352960.80000000005</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="17">
         <f t="shared" si="0"/>
         <v>424541.88</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1691,45 +1705,45 @@
       <c r="K13" s="3">
         <v>27665.39</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="17">
         <f t="shared" si="9"/>
         <v>201564.12</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="17">
         <f t="shared" si="10"/>
         <v>267434.76</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="17">
         <f t="shared" si="11"/>
         <v>262428</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="17">
         <f t="shared" si="12"/>
         <v>267120</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="17">
         <f t="shared" si="13"/>
         <v>288626.39914794959</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="17">
         <f t="shared" si="14"/>
         <v>276086.40000000002</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="17">
         <f t="shared" si="15"/>
         <v>340398</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="17">
         <f t="shared" si="16"/>
         <v>327080.40000000002</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="17">
         <f t="shared" si="0"/>
         <v>331984.68</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1760,45 +1774,45 @@
       <c r="K14" s="3">
         <v>27797.79</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="17">
         <f t="shared" si="9"/>
         <v>159057.84</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="17">
         <f t="shared" si="10"/>
         <v>227543.88</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="17">
         <f t="shared" si="11"/>
         <v>240216</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="17">
         <f t="shared" si="12"/>
         <v>301080</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="17">
         <f t="shared" si="13"/>
         <v>275793.94340825878</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="17">
         <f t="shared" si="14"/>
         <v>263148</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="17">
         <f t="shared" si="15"/>
         <v>364809.6</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="17">
         <f t="shared" si="16"/>
         <v>363777.6</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="17">
         <f t="shared" si="0"/>
         <v>333573.48</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1829,45 +1843,45 @@
       <c r="K15" s="3">
         <v>32893.599999999999</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="17">
         <f t="shared" si="9"/>
         <v>191503.08000000002</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="17">
         <f t="shared" si="10"/>
         <v>190761</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="17">
         <f t="shared" si="11"/>
         <v>247272</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="17">
         <f t="shared" si="12"/>
         <v>226392</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="17">
         <f t="shared" si="13"/>
         <v>233302.31685597598</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="17">
         <f t="shared" si="14"/>
         <v>291331.19999999995</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="17">
         <f t="shared" si="15"/>
         <v>327402</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="17">
         <f t="shared" si="16"/>
         <v>432282</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="17">
         <f t="shared" si="0"/>
         <v>394723.19999999995</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1898,45 +1912,45 @@
       <c r="K16" s="3">
         <v>27796.68</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="17">
         <f t="shared" si="9"/>
         <v>165859.20000000001</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="17">
         <f t="shared" si="10"/>
         <v>168965.52</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="17">
         <f t="shared" si="11"/>
         <v>230760</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="17">
         <f t="shared" si="12"/>
         <v>199968</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="17">
         <f t="shared" si="13"/>
         <v>203383.1665161108</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="17">
         <f t="shared" si="14"/>
         <v>337418.4</v>
       </c>
-      <c r="S16" s="10">
+      <c r="S16" s="17">
         <f t="shared" si="15"/>
         <v>259833.59999999998</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="17">
         <f t="shared" si="16"/>
         <v>303994.80000000005</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="17">
         <f t="shared" si="0"/>
         <v>333560.16000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1967,45 +1981,45 @@
       <c r="K17" s="3">
         <v>26061.85</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="17">
         <f t="shared" si="9"/>
         <v>177943.91999999998</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="17">
         <f t="shared" si="10"/>
         <v>203251.91999999998</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="17">
         <f t="shared" si="11"/>
         <v>201240</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="17">
         <f t="shared" si="12"/>
         <v>247980</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="17">
         <f t="shared" si="13"/>
         <v>255018.86543603882</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="17">
         <f t="shared" si="14"/>
         <v>276368.40000000002</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="17">
         <f t="shared" si="15"/>
         <v>414579.60000000003</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="17">
         <f t="shared" si="16"/>
         <v>330658.80000000005</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="17">
         <f t="shared" si="0"/>
         <v>312742.19999999995</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2036,45 +2050,45 @@
       <c r="K18" s="3">
         <v>22952.89</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="17">
         <f t="shared" si="9"/>
         <v>152640</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="17">
         <f t="shared" si="10"/>
         <v>180381.36000000002</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="17">
         <f t="shared" si="11"/>
         <v>192372</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="17">
         <f t="shared" si="12"/>
         <v>219156</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="17">
         <f t="shared" si="13"/>
         <v>270577.44140491198</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="17">
         <f t="shared" si="14"/>
         <v>304057.19999999995</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="17">
         <f t="shared" si="15"/>
         <v>252466.80000000002</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="17">
         <f t="shared" si="16"/>
         <v>289987.19999999995</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="17">
         <f t="shared" si="0"/>
         <v>275434.68</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2105,45 +2119,45 @@
       <c r="K19" s="3">
         <v>25119.93</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="17">
         <f t="shared" si="9"/>
         <v>128660.88</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="17">
         <f t="shared" si="10"/>
         <v>157156.44</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="17">
         <f t="shared" si="11"/>
         <v>169248</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="17">
         <f t="shared" si="12"/>
         <v>191796</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="17">
         <f t="shared" si="13"/>
         <v>210037.69946600881</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="17">
         <f t="shared" si="14"/>
         <v>204508.80000000002</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="17">
         <f t="shared" si="15"/>
         <v>280687.19999999995</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="17">
         <f t="shared" si="16"/>
         <v>282660</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="17">
         <f t="shared" si="16"/>
         <v>301439.16000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2174,45 +2188,45 @@
       <c r="K20" s="3">
         <v>22115.02</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="17">
         <f t="shared" si="9"/>
         <v>119410.32</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="17">
         <f t="shared" si="10"/>
         <v>129326.51999999999</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="17">
         <f t="shared" si="11"/>
         <v>138924</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="17">
         <f t="shared" si="12"/>
         <v>163116</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="17">
         <f t="shared" si="13"/>
         <v>186305.32424325839</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="17">
         <f t="shared" si="14"/>
         <v>213373.19999999998</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="17">
         <f t="shared" si="15"/>
         <v>297662.40000000002</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="17">
         <f t="shared" si="16"/>
         <v>323440.80000000005</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="17">
         <f t="shared" si="16"/>
         <v>265380.24</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2243,45 +2257,45 @@
       <c r="K21" s="3">
         <v>33622.28</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="17">
         <f t="shared" si="9"/>
         <v>176307</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="17">
         <f t="shared" si="10"/>
         <v>238400.52</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="17">
         <f t="shared" si="11"/>
         <v>278424</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="17">
         <f t="shared" si="12"/>
         <v>210912</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="17">
         <f t="shared" si="13"/>
         <v>251929.12315030082</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="17">
         <f t="shared" si="14"/>
         <v>224557.19999999998</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="17">
         <f t="shared" si="15"/>
         <v>308899.19999999995</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="17">
         <f t="shared" si="16"/>
         <v>235080</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="17">
         <f t="shared" si="16"/>
         <v>403467.36</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2312,45 +2326,45 @@
       <c r="K22" s="3">
         <v>20564.740000000002</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="17">
         <f t="shared" si="9"/>
         <v>184561.68</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="17">
         <f t="shared" si="10"/>
         <v>145461.96</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="17">
         <f t="shared" si="11"/>
         <v>187272</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="17">
         <f t="shared" si="12"/>
         <v>183912</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="17">
         <f t="shared" si="13"/>
         <v>210855.59159298599</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="17">
         <f t="shared" si="14"/>
         <v>182518.8</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="17">
         <f t="shared" si="15"/>
         <v>224952</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="17">
         <f t="shared" si="16"/>
         <v>226605.59999999998</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="17">
         <f t="shared" si="16"/>
         <v>246776.88</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2381,45 +2395,45 @@
       <c r="K23" s="3">
         <v>20440.57</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="17">
         <f t="shared" si="9"/>
         <v>155807.51999999999</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="17">
         <f t="shared" si="10"/>
         <v>189368.04</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="17">
         <f t="shared" si="11"/>
         <v>177396</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="17">
         <f t="shared" si="12"/>
         <v>181344</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="17">
         <f t="shared" si="13"/>
         <v>189566.37253080599</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="17">
         <f t="shared" si="14"/>
         <v>191133.59999999998</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="17">
         <f t="shared" si="15"/>
         <v>207123.59999999998</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="17">
         <f t="shared" si="16"/>
         <v>189434.40000000002</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="17">
         <f t="shared" si="16"/>
         <v>245286.84</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -2450,45 +2464,45 @@
       <c r="K24" s="3">
         <v>32760.69</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="17">
         <f t="shared" si="9"/>
         <v>224085.36</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="17">
         <f t="shared" si="10"/>
         <v>248416.19999999998</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="17">
         <f t="shared" si="11"/>
         <v>347760</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="17">
         <f t="shared" si="12"/>
         <v>305364</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="17">
         <f t="shared" si="13"/>
         <v>299864.0069224296</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="17">
         <f t="shared" si="14"/>
         <v>275457.59999999998</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="17">
         <f t="shared" si="15"/>
         <v>370266</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="17">
         <f t="shared" si="16"/>
         <v>484164</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="17">
         <f t="shared" si="16"/>
         <v>393128.27999999997</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2519,45 +2533,45 @@
       <c r="K25" s="3">
         <v>25446.01</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="17">
         <f t="shared" si="9"/>
         <v>197237.76000000001</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="17">
         <f t="shared" si="10"/>
         <v>184163.52</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="17">
         <f t="shared" si="11"/>
         <v>234660</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="17">
         <f t="shared" si="12"/>
         <v>224820</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="17">
         <f t="shared" si="13"/>
         <v>251737.0323121128</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="17">
         <f t="shared" si="14"/>
         <v>250202.40000000002</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="17">
         <f t="shared" si="15"/>
         <v>283899.59999999998</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="17">
         <f t="shared" si="16"/>
         <v>352168.80000000005</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="17">
         <f t="shared" si="16"/>
         <v>305352.12</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2588,45 +2602,45 @@
       <c r="K26" s="3">
         <v>30182.85</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="17">
         <f t="shared" si="9"/>
         <v>166512.36000000002</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="17">
         <f t="shared" si="10"/>
         <v>150340.79999999999</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="17">
         <f t="shared" si="11"/>
         <v>202524</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="17">
         <f t="shared" si="12"/>
         <v>151608</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="17">
         <f t="shared" si="13"/>
         <v>220358.88683486759</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="17">
         <f t="shared" si="14"/>
         <v>180816</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="12">
         <f t="shared" si="15"/>
         <v>195078</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="17">
         <f t="shared" si="16"/>
         <v>219722.40000000002</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U26" s="17">
         <f t="shared" si="16"/>
         <v>362194.19999999995</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2657,45 +2671,45 @@
       <c r="K27" s="3">
         <v>27232.09</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="17">
         <f t="shared" si="9"/>
         <v>191914.32</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="17">
         <f t="shared" si="10"/>
         <v>156474.84</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="17">
         <f t="shared" si="11"/>
         <v>180504</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="17">
         <f t="shared" si="12"/>
         <v>214260</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="17">
         <f t="shared" si="13"/>
         <v>209278.52727704641</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="17">
         <f t="shared" si="14"/>
         <v>240309.59999999998</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="17">
         <f t="shared" si="15"/>
         <v>261411.59999999998</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="17">
         <f t="shared" si="16"/>
         <v>317168.40000000002</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="17">
         <f t="shared" si="16"/>
         <v>326785.08</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -2726,126 +2740,126 @@
       <c r="K28" s="3">
         <v>28466.6</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="17">
         <f t="shared" si="9"/>
         <v>139995.84</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="17">
         <f t="shared" si="10"/>
         <v>165670.32</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="17">
         <f t="shared" si="11"/>
         <v>194856</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="17">
         <f t="shared" si="12"/>
         <v>215184</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="17">
         <f t="shared" si="13"/>
         <v>203203.14543315838</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="17">
         <f t="shared" si="14"/>
         <v>209724</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="17">
         <f t="shared" si="15"/>
         <v>341510.40000000002</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="17">
         <f t="shared" si="16"/>
         <v>282271.19999999995</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="17">
         <f t="shared" si="16"/>
         <v>341599.19999999995</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <f>AVERAGE(C30:C46)</f>
         <v>9288.6999999999971</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <f t="shared" ref="D29:U29" si="17">AVERAGE(D30:D46)</f>
         <v>10724.100588235293</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="10">
         <f t="shared" si="17"/>
         <v>12758.176470588236</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="10">
         <f t="shared" si="17"/>
         <v>13113.588235294117</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="10">
         <f t="shared" si="17"/>
         <v>15491.87493444332</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="10">
         <f t="shared" si="17"/>
         <v>16889.058823529413</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="10">
         <f t="shared" si="17"/>
         <v>19349.670588235294</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="10">
         <f t="shared" si="17"/>
         <v>19510.099999999999</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="10">
         <f t="shared" si="17"/>
         <v>19210.448823529408</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10">
         <f t="shared" si="17"/>
         <v>111464.40000000002</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="10">
         <f t="shared" si="17"/>
         <v>128689.20705882351</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f t="shared" si="17"/>
         <v>153098.11764705883</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
         <f t="shared" si="17"/>
         <v>157363.0588235294</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="10">
         <f t="shared" si="17"/>
         <v>185902.49921331982</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="10">
         <f t="shared" si="17"/>
         <v>202668.70588235295</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="10">
         <f t="shared" si="17"/>
         <v>232196.04705882349</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="10">
         <f t="shared" si="17"/>
         <v>234121.19999999998</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="10">
         <f t="shared" si="17"/>
         <v>230525.38588235294</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2878,45 +2892,45 @@
       <c r="K30" s="3">
         <v>18970.11</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="17">
         <f t="shared" si="9"/>
         <v>114978.72</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="17">
         <f t="shared" si="10"/>
         <v>151032</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="17">
         <f t="shared" si="11"/>
         <v>178848</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="17">
         <f t="shared" si="12"/>
         <v>172632</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="17">
         <f t="shared" si="13"/>
         <v>193697.28638982479</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="17">
         <f t="shared" si="14"/>
         <v>219878.40000000002</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="12">
         <f t="shared" si="15"/>
         <v>172712.40000000002</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="12">
         <f t="shared" si="16"/>
         <v>179404.79999999999</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="12">
         <f t="shared" si="16"/>
         <v>227641.32</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -2947,48 +2961,48 @@
       <c r="K31" s="3">
         <v>24467.87</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="17">
         <f t="shared" si="9"/>
         <v>135942.96</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="17">
         <f t="shared" si="10"/>
         <v>142111.08000000002</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="17">
         <f t="shared" si="11"/>
         <v>172332</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="17">
         <f t="shared" si="12"/>
         <v>169248</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="17">
         <f t="shared" si="13"/>
         <v>240576.01523079124</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="17">
         <f t="shared" si="14"/>
         <v>225340.80000000002</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="17">
         <f t="shared" si="15"/>
         <v>270054</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="17">
         <f t="shared" si="16"/>
         <v>286011.59999999998</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U31" s="17">
         <f t="shared" si="16"/>
         <v>293614.44</v>
       </c>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -3019,48 +3033,48 @@
       <c r="K32" s="3">
         <v>21034.46</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="17">
         <f t="shared" si="9"/>
         <v>117106.32</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="17">
         <f t="shared" si="10"/>
         <v>126910.56</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="17">
         <f t="shared" si="11"/>
         <v>186612</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="17">
         <f t="shared" si="12"/>
         <v>162372</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="17">
         <f t="shared" si="13"/>
         <v>168244.21075993322</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="17">
         <f t="shared" si="14"/>
         <v>221443.19999999998</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="17">
         <f t="shared" si="15"/>
         <v>231145.19999999998</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T32" s="17">
         <f t="shared" si="16"/>
         <v>245594.40000000002</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="17">
         <f t="shared" si="16"/>
         <v>252413.52</v>
       </c>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -3091,48 +3105,48 @@
       <c r="K33" s="3">
         <v>20857.490000000002</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="17">
         <f t="shared" si="9"/>
         <v>102975.59999999999</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="17">
         <f t="shared" si="10"/>
         <v>131286.84</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="17">
         <f t="shared" si="11"/>
         <v>170700</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="17">
         <f t="shared" si="12"/>
         <v>180012</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="17">
         <f t="shared" si="13"/>
         <v>190378.08112483082</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="17">
         <f t="shared" si="14"/>
         <v>211226.40000000002</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="17">
         <f t="shared" si="15"/>
         <v>256132.80000000002</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="17">
         <f t="shared" si="16"/>
         <v>230872.80000000002</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="17">
         <f t="shared" si="16"/>
         <v>250289.88</v>
       </c>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
     </row>
     <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -3163,48 +3177,48 @@
       <c r="K34" s="3">
         <v>19850.21</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="17">
         <f t="shared" si="9"/>
         <v>120569.63999999998</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="17">
         <f t="shared" si="10"/>
         <v>136000.20000000001</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="17">
         <f t="shared" si="11"/>
         <v>151092</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="17">
         <f t="shared" si="12"/>
         <v>168540</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="17">
         <f t="shared" si="13"/>
         <v>156406.30995443161</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="17">
         <f t="shared" si="14"/>
         <v>217886.40000000002</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="17">
         <f t="shared" si="15"/>
         <v>233013.59999999998</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="17">
         <f t="shared" si="16"/>
         <v>261546</v>
       </c>
-      <c r="U34" s="10">
+      <c r="U34" s="17">
         <f t="shared" si="16"/>
         <v>238202.52</v>
       </c>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
     </row>
     <row r="35" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -3235,48 +3249,48 @@
       <c r="K35" s="3">
         <v>19591.2</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="17">
         <f t="shared" si="9"/>
         <v>97563.72</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="17">
         <f t="shared" si="10"/>
         <v>129009.72</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="17">
         <f t="shared" si="11"/>
         <v>127080</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="17">
         <f t="shared" si="12"/>
         <v>136884</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="17">
         <f t="shared" si="13"/>
         <v>175491.79508206318</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="17">
         <f t="shared" si="14"/>
         <v>194991.59999999998</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="17">
         <f t="shared" si="15"/>
         <v>211170</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="17">
         <f t="shared" si="16"/>
         <v>214634.40000000002</v>
       </c>
-      <c r="U35" s="10">
+      <c r="U35" s="17">
         <f t="shared" si="16"/>
         <v>235094.40000000002</v>
       </c>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
     </row>
     <row r="36" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -3307,48 +3321,48 @@
       <c r="K36" s="3">
         <v>14593.62</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="17">
         <f t="shared" si="9"/>
         <v>114236.76</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="17">
         <f t="shared" si="10"/>
         <v>115713.72</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="17">
         <f t="shared" si="11"/>
         <v>124224</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="17">
         <f t="shared" si="12"/>
         <v>136176</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="17">
         <f t="shared" si="13"/>
         <v>158267.45373913078</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="12">
         <f t="shared" si="14"/>
         <v>173481.59999999998</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="12">
         <f t="shared" si="15"/>
         <v>185893.2</v>
       </c>
-      <c r="T36" s="10">
+      <c r="T36" s="17">
         <f t="shared" si="16"/>
         <v>212077.19999999998</v>
       </c>
-      <c r="U36" s="15">
+      <c r="U36" s="12">
         <f t="shared" si="16"/>
         <v>175123.44</v>
       </c>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
     </row>
     <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
@@ -3379,48 +3393,48 @@
       <c r="K37" s="3">
         <v>11808.93</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="17">
         <f t="shared" si="9"/>
         <v>100432.32000000001</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="17">
         <f t="shared" si="10"/>
         <v>107046</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="17">
         <f t="shared" si="11"/>
         <v>125940</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="17">
         <f t="shared" si="12"/>
         <v>164832</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="17">
         <f t="shared" si="13"/>
         <v>159330.31785482159</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="17">
         <f t="shared" si="14"/>
         <v>180404.40000000002</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="12">
         <f t="shared" si="15"/>
         <v>162121.20000000001</v>
       </c>
-      <c r="T37" s="10">
+      <c r="T37" s="12">
         <f t="shared" si="16"/>
         <v>161966.40000000002</v>
       </c>
-      <c r="U37" s="15">
+      <c r="U37" s="12">
         <f t="shared" si="16"/>
         <v>141707.16</v>
       </c>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
     </row>
     <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
@@ -3451,48 +3465,48 @@
       <c r="K38" s="3">
         <v>15617.49</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="17">
         <f t="shared" si="9"/>
         <v>80357.88</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="17">
         <f t="shared" si="10"/>
         <v>104111.28</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="12">
         <f t="shared" si="11"/>
         <v>78528</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="12">
         <f t="shared" si="12"/>
         <v>86940</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="12">
         <f t="shared" si="13"/>
         <v>95229.986574020528</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="12">
         <f t="shared" si="14"/>
         <v>108291.59999999999</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="12">
         <f t="shared" si="15"/>
         <v>105850.79999999999</v>
       </c>
-      <c r="T38" s="10">
+      <c r="T38" s="12">
         <f t="shared" si="16"/>
         <v>181432.8</v>
       </c>
-      <c r="U38" s="15">
+      <c r="U38" s="12">
         <f t="shared" si="16"/>
         <v>187409.88</v>
       </c>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
     </row>
     <row r="39" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -3523,48 +3537,48 @@
       <c r="K39" s="3">
         <v>21002.53</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="17">
         <f t="shared" si="9"/>
         <v>115914.24000000001</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="17">
         <f t="shared" si="10"/>
         <v>122396.16</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="17">
         <f t="shared" si="11"/>
         <v>179364</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="17">
         <f t="shared" si="12"/>
         <v>181692</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="17">
         <f t="shared" si="13"/>
         <v>205526.46734608797</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="17">
         <f t="shared" si="14"/>
         <v>258730.80000000002</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S39" s="17">
         <f t="shared" si="15"/>
         <v>289899.59999999998</v>
       </c>
-      <c r="T39" s="10">
+      <c r="T39" s="17">
         <f t="shared" si="16"/>
         <v>263427.59999999998</v>
       </c>
-      <c r="U39" s="10">
+      <c r="U39" s="17">
         <f t="shared" si="16"/>
         <v>252030.36</v>
       </c>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
     </row>
     <row r="40" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3595,48 +3609,48 @@
       <c r="K40" s="3">
         <v>21165.96</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M40" s="17">
         <f t="shared" si="9"/>
         <v>78224.759999999995</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="17">
         <f t="shared" si="10"/>
         <v>117800.40000000001</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="17">
         <f t="shared" si="11"/>
         <v>159096</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="17">
         <f t="shared" si="12"/>
         <v>144432</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="17">
         <f t="shared" si="13"/>
         <v>209101.04669365921</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="17">
         <f t="shared" si="14"/>
         <v>221845.19999999998</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="17">
         <f t="shared" si="15"/>
         <v>241796.40000000002</v>
       </c>
-      <c r="T40" s="10">
+      <c r="T40" s="17">
         <f t="shared" si="16"/>
         <v>241374</v>
       </c>
-      <c r="U40" s="10">
+      <c r="U40" s="17">
         <f t="shared" si="16"/>
         <v>253991.52</v>
       </c>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
     </row>
     <row r="41" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -3667,48 +3681,48 @@
       <c r="K41" s="3">
         <v>18770.8</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="17">
         <f t="shared" si="9"/>
         <v>150996.24</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="17">
         <f t="shared" si="10"/>
         <v>153315.96</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="17">
         <f t="shared" si="11"/>
         <v>184044</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="17">
         <f t="shared" si="12"/>
         <v>186708</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="17">
         <f t="shared" si="13"/>
         <v>217383.79636722841</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="17">
         <f t="shared" si="14"/>
         <v>224062.80000000002</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="17">
         <f t="shared" si="15"/>
         <v>264991.19999999995</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="17">
         <f t="shared" si="16"/>
         <v>241682.40000000002</v>
       </c>
-      <c r="U41" s="15">
+      <c r="U41" s="12">
         <f t="shared" si="16"/>
         <v>225249.59999999998</v>
       </c>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
     </row>
     <row r="42" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3739,48 +3753,48 @@
       <c r="K42" s="3">
         <v>16508.97</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="17">
         <f t="shared" si="9"/>
         <v>93150.84</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="17">
         <f t="shared" si="10"/>
         <v>114586.20000000001</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="17">
         <f t="shared" si="11"/>
         <v>131556</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="17">
         <f t="shared" si="12"/>
         <v>129492</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="17">
         <f t="shared" si="13"/>
         <v>149430.573309534</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="12">
         <f t="shared" si="14"/>
         <v>155227.20000000001</v>
       </c>
-      <c r="S42" s="10">
+      <c r="S42" s="17">
         <f t="shared" si="15"/>
         <v>204240</v>
       </c>
-      <c r="T42" s="10">
+      <c r="T42" s="17">
         <f t="shared" si="16"/>
         <v>240952.80000000002</v>
       </c>
-      <c r="U42" s="15">
+      <c r="U42" s="12">
         <f t="shared" si="16"/>
         <v>198107.64</v>
       </c>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
     </row>
     <row r="43" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -3811,48 +3825,48 @@
       <c r="K43" s="3">
         <v>21227.47</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="17">
         <f t="shared" si="9"/>
         <v>99591.72</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="17">
         <f t="shared" si="10"/>
         <v>137124.59999999998</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="17">
         <f t="shared" si="11"/>
         <v>166116</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="17">
         <f t="shared" si="12"/>
         <v>152640</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="17">
         <f t="shared" si="13"/>
         <v>184928.5080124044</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="17">
         <f t="shared" si="14"/>
         <v>217180.80000000002</v>
       </c>
-      <c r="S43" s="10">
+      <c r="S43" s="17">
         <f t="shared" si="15"/>
         <v>289454.40000000002</v>
       </c>
-      <c r="T43" s="10">
+      <c r="T43" s="17">
         <f t="shared" si="16"/>
         <v>267018</v>
       </c>
-      <c r="U43" s="10">
+      <c r="U43" s="17">
         <f t="shared" si="16"/>
         <v>254729.64</v>
       </c>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
     </row>
     <row r="44" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -3883,48 +3897,48 @@
       <c r="K44" s="3">
         <v>20348.05</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M44" s="17">
         <f t="shared" si="9"/>
         <v>127638.59999999999</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="17">
         <f t="shared" si="10"/>
         <v>153006.72</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O44" s="17">
         <f t="shared" si="11"/>
         <v>169404</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="17">
         <f t="shared" si="12"/>
         <v>160368</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="17">
         <f t="shared" si="13"/>
         <v>189349.83848143322</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="17">
         <f t="shared" si="14"/>
         <v>209688</v>
       </c>
-      <c r="S44" s="10">
+      <c r="S44" s="17">
         <f t="shared" si="15"/>
         <v>329874</v>
       </c>
-      <c r="T44" s="10">
+      <c r="T44" s="17">
         <f t="shared" si="16"/>
         <v>230821.19999999998</v>
       </c>
-      <c r="U44" s="10">
+      <c r="U44" s="17">
         <f t="shared" si="16"/>
         <v>244176.59999999998</v>
       </c>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
     </row>
     <row r="45" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
@@ -3955,48 +3969,48 @@
       <c r="K45" s="3">
         <v>19412.03</v>
       </c>
-      <c r="M45" s="10">
+      <c r="M45" s="17">
         <f t="shared" si="9"/>
         <v>130644.24</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="17">
         <f t="shared" si="10"/>
         <v>131406.96</v>
       </c>
-      <c r="O45" s="10">
+      <c r="O45" s="17">
         <f t="shared" si="11"/>
         <v>161856</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45" s="17">
         <f t="shared" si="12"/>
         <v>187236</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="17">
         <f t="shared" si="13"/>
         <v>261848.35989099479</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="17">
         <f t="shared" si="14"/>
         <v>217556.40000000002</v>
       </c>
-      <c r="S45" s="10">
+      <c r="S45" s="17">
         <f t="shared" si="15"/>
         <v>259964.40000000002</v>
       </c>
-      <c r="T45" s="10">
+      <c r="T45" s="17">
         <f t="shared" si="16"/>
         <v>265206</v>
       </c>
-      <c r="U45" s="10">
+      <c r="U45" s="17">
         <f t="shared" si="16"/>
         <v>232944.36</v>
       </c>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
     </row>
     <row r="46" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
@@ -4027,132 +4041,132 @@
       <c r="K46" s="3">
         <v>21350.44</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="17">
         <f t="shared" si="9"/>
         <v>114570.24000000001</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="17">
         <f t="shared" si="10"/>
         <v>114858.12</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="17">
         <f t="shared" si="11"/>
         <v>135876</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="17">
         <f t="shared" si="12"/>
         <v>154968</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="17">
         <f t="shared" si="13"/>
         <v>205152.4398152472</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="17">
         <f t="shared" si="14"/>
         <v>188132.40000000002</v>
       </c>
-      <c r="S46" s="10">
+      <c r="S46" s="17">
         <f t="shared" si="15"/>
         <v>239019.59999999998</v>
       </c>
-      <c r="T46" s="10">
+      <c r="T46" s="17">
         <f t="shared" si="16"/>
         <v>256038</v>
       </c>
-      <c r="U46" s="10">
+      <c r="U46" s="17">
         <f t="shared" si="16"/>
         <v>256205.27999999997</v>
       </c>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
     </row>
     <row r="47" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="10">
         <f>AVERAGE(C48:C67)</f>
         <v>8575.9645</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="10">
         <f t="shared" ref="D47:U47" si="18">AVERAGE(D48:D67)</f>
         <v>9378.0104999999985</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="10">
         <f t="shared" si="18"/>
         <v>11202.9</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="10">
         <f t="shared" si="18"/>
         <v>12123.85</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="10">
         <f t="shared" si="18"/>
         <v>14117.917290540849</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="10">
         <f t="shared" si="18"/>
         <v>17030.750000000004</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="10">
         <f t="shared" si="18"/>
         <v>18306.030000000002</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="10">
         <f t="shared" si="18"/>
         <v>20677.160000000003</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="10">
         <f t="shared" si="18"/>
         <v>19802.361000000001</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13">
+      <c r="L47" s="10"/>
+      <c r="M47" s="10">
         <f t="shared" si="18"/>
         <v>102911.57399999999</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="10">
         <f t="shared" si="18"/>
         <v>112536.12600000002</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="10">
         <f t="shared" si="18"/>
         <v>134434.79999999999</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="10">
         <f t="shared" si="18"/>
         <v>145486.20000000001</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="Q47" s="10">
         <f t="shared" si="18"/>
         <v>169415.00748649024</v>
       </c>
-      <c r="R47" s="13">
+      <c r="R47" s="10">
         <f t="shared" si="18"/>
         <v>204368.99999999994</v>
       </c>
-      <c r="S47" s="13">
+      <c r="S47" s="10">
         <f t="shared" si="18"/>
         <v>219672.36000000002</v>
       </c>
-      <c r="T47" s="13">
+      <c r="T47" s="10">
         <f t="shared" si="18"/>
         <v>248125.91999999998</v>
       </c>
-      <c r="U47" s="13">
+      <c r="U47" s="10">
         <f t="shared" si="18"/>
         <v>237628.33199999994</v>
       </c>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4185,48 +4199,48 @@
       <c r="K48" s="3">
         <v>24428.92</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="17">
         <f t="shared" si="9"/>
         <v>113931</v>
       </c>
-      <c r="N48" s="10">
+      <c r="N48" s="17">
         <f t="shared" si="10"/>
         <v>136780.79999999999</v>
       </c>
-      <c r="O48" s="10">
+      <c r="O48" s="17">
         <f t="shared" si="11"/>
         <v>159840</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="17">
         <f t="shared" si="12"/>
         <v>170124</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="17">
         <f t="shared" si="13"/>
         <v>229896.74480189761</v>
       </c>
-      <c r="R48" s="10">
+      <c r="R48" s="17">
         <f t="shared" si="14"/>
         <v>232792.80000000002</v>
       </c>
-      <c r="S48" s="10">
+      <c r="S48" s="17">
         <f t="shared" si="15"/>
         <v>269750.40000000002</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="17">
         <f t="shared" si="16"/>
         <v>316515.59999999998</v>
       </c>
-      <c r="U48" s="10">
+      <c r="U48" s="17">
         <f t="shared" si="16"/>
         <v>293147.03999999998</v>
       </c>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
@@ -4257,48 +4271,48 @@
       <c r="K49" s="3">
         <v>15381.62</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49" s="17">
         <f t="shared" si="9"/>
         <v>94331.88</v>
       </c>
-      <c r="N49" s="10">
+      <c r="N49" s="17">
         <f t="shared" si="10"/>
         <v>103583.51999999999</v>
       </c>
-      <c r="O49" s="10">
+      <c r="O49" s="17">
         <f t="shared" si="11"/>
         <v>116376</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="12">
         <f t="shared" si="12"/>
         <v>123156</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="17">
         <f t="shared" si="13"/>
         <v>164807.99522630521</v>
       </c>
-      <c r="R49" s="10">
+      <c r="R49" s="17">
         <f t="shared" si="14"/>
         <v>207789.59999999998</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="12">
         <f t="shared" si="15"/>
         <v>187492.8</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="17">
         <f t="shared" si="16"/>
         <v>221755.19999999998</v>
       </c>
-      <c r="U49" s="15">
+      <c r="U49" s="12">
         <f t="shared" si="16"/>
         <v>184579.44</v>
       </c>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="2" t="s">
         <v>58</v>
       </c>
@@ -4329,48 +4343,48 @@
       <c r="K50" s="3">
         <v>18188.900000000001</v>
       </c>
-      <c r="M50" s="10">
+      <c r="M50" s="17">
         <f t="shared" si="9"/>
         <v>80101.440000000002</v>
       </c>
-      <c r="N50" s="10">
+      <c r="N50" s="17">
         <f t="shared" si="10"/>
         <v>97135.200000000012</v>
       </c>
-      <c r="O50" s="10">
+      <c r="O50" s="17">
         <f t="shared" si="11"/>
         <v>142200</v>
       </c>
-      <c r="P50" s="10">
+      <c r="P50" s="17">
         <f t="shared" si="12"/>
         <v>147084</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q50" s="17">
         <f t="shared" si="13"/>
         <v>135725.9085582816</v>
       </c>
-      <c r="R50" s="10">
+      <c r="R50" s="17">
         <f t="shared" si="14"/>
         <v>219448.80000000002</v>
       </c>
-      <c r="S50" s="10">
+      <c r="S50" s="17">
         <f t="shared" si="15"/>
         <v>256212</v>
       </c>
-      <c r="T50" s="10">
+      <c r="T50" s="17">
         <f t="shared" si="16"/>
         <v>243775.19999999998</v>
       </c>
-      <c r="U50" s="15">
+      <c r="U50" s="12">
         <f t="shared" si="16"/>
         <v>218266.80000000002</v>
       </c>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
     </row>
     <row r="51" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
@@ -4401,45 +4415,45 @@
       <c r="K51" s="3">
         <v>17484.66</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M51" s="17">
         <f t="shared" si="9"/>
         <v>90769.919999999998</v>
       </c>
-      <c r="N51" s="10">
+      <c r="N51" s="17">
         <f t="shared" si="10"/>
         <v>104940.24</v>
       </c>
-      <c r="O51" s="10">
+      <c r="O51" s="17">
         <f t="shared" si="11"/>
         <v>112872</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51" s="17">
         <f t="shared" si="12"/>
         <v>129384</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="12">
         <f t="shared" si="13"/>
         <v>127994.8831346964</v>
       </c>
-      <c r="R51" s="10">
+      <c r="R51" s="17">
         <f t="shared" si="14"/>
         <v>167326.79999999999</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S51" s="12">
         <f t="shared" si="15"/>
         <v>194486.40000000002</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T51" s="17">
         <f t="shared" si="16"/>
         <v>225510</v>
       </c>
-      <c r="U51" s="15">
+      <c r="U51" s="12">
         <f t="shared" si="16"/>
         <v>209815.91999999998</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -4470,45 +4484,45 @@
       <c r="K52" s="3">
         <v>24380.1</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="17">
         <f t="shared" si="9"/>
         <v>147091.32</v>
       </c>
-      <c r="N52" s="10">
+      <c r="N52" s="17">
         <f t="shared" si="10"/>
         <v>140360.04</v>
       </c>
-      <c r="O52" s="10">
+      <c r="O52" s="17">
         <f t="shared" si="11"/>
         <v>144420</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="17">
         <f t="shared" si="12"/>
         <v>174408</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="17">
         <f t="shared" si="13"/>
         <v>200968.85206737003</v>
       </c>
-      <c r="R52" s="10">
+      <c r="R52" s="17">
         <f t="shared" si="14"/>
         <v>259915.19999999998</v>
       </c>
-      <c r="S52" s="10">
+      <c r="S52" s="17">
         <f t="shared" si="15"/>
         <v>268124.40000000002</v>
       </c>
-      <c r="T52" s="10">
+      <c r="T52" s="17">
         <f t="shared" si="16"/>
         <v>245430</v>
       </c>
-      <c r="U52" s="10">
+      <c r="U52" s="17">
         <f t="shared" si="16"/>
         <v>292561.19999999995</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
@@ -4539,45 +4553,45 @@
       <c r="K53" s="3">
         <v>16752.27</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="17">
         <f t="shared" si="9"/>
         <v>72535.319999999992</v>
       </c>
-      <c r="N53" s="10">
+      <c r="N53" s="17">
         <f t="shared" si="10"/>
         <v>112916.88</v>
       </c>
-      <c r="O53" s="10">
+      <c r="O53" s="17">
         <f t="shared" si="11"/>
         <v>119628</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="17">
         <f t="shared" si="12"/>
         <v>120480</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="17">
         <f t="shared" si="13"/>
         <v>141761.38901159281</v>
       </c>
-      <c r="R53" s="10">
+      <c r="R53" s="17">
         <f t="shared" si="14"/>
         <v>201201.59999999998</v>
       </c>
-      <c r="S53" s="10">
+      <c r="S53" s="12">
         <f t="shared" si="15"/>
         <v>173020.79999999999</v>
       </c>
-      <c r="T53" s="10">
+      <c r="T53" s="17">
         <f t="shared" si="16"/>
         <v>234214.80000000002</v>
       </c>
-      <c r="U53" s="15">
+      <c r="U53" s="12">
         <f t="shared" si="16"/>
         <v>201027.24</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
@@ -4608,45 +4622,45 @@
       <c r="K54" s="3">
         <v>25543.599999999999</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M54" s="17">
         <f t="shared" si="9"/>
         <v>100368.12</v>
       </c>
-      <c r="N54" s="10">
+      <c r="N54" s="17">
         <f t="shared" si="10"/>
         <v>109935.84</v>
       </c>
-      <c r="O54" s="10">
+      <c r="O54" s="17">
         <f t="shared" si="11"/>
         <v>138612</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="17">
         <f t="shared" si="12"/>
         <v>135036</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="17">
         <f t="shared" si="13"/>
         <v>148560.14300162162</v>
       </c>
-      <c r="R54" s="10">
+      <c r="R54" s="17">
         <f t="shared" si="14"/>
         <v>189531.59999999998</v>
       </c>
-      <c r="S54" s="10">
+      <c r="S54" s="17">
         <f t="shared" si="15"/>
         <v>223692</v>
       </c>
-      <c r="T54" s="10">
+      <c r="T54" s="17">
         <f t="shared" si="16"/>
         <v>285954</v>
       </c>
-      <c r="U54" s="10">
+      <c r="U54" s="17">
         <f t="shared" si="16"/>
         <v>306523.19999999995</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
@@ -4677,45 +4691,45 @@
       <c r="K55" s="3">
         <v>18230.689999999999</v>
       </c>
-      <c r="M55" s="10">
+      <c r="M55" s="17">
         <f t="shared" si="9"/>
         <v>111688.08</v>
       </c>
-      <c r="N55" s="10">
+      <c r="N55" s="17">
         <f t="shared" si="10"/>
         <v>137074.79999999999</v>
       </c>
-      <c r="O55" s="10">
+      <c r="O55" s="17">
         <f t="shared" si="11"/>
         <v>157608</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="17">
         <f t="shared" si="12"/>
         <v>142668</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q55" s="17">
         <f t="shared" si="13"/>
         <v>177160.5920967432</v>
       </c>
-      <c r="R55" s="10">
+      <c r="R55" s="17">
         <f t="shared" si="14"/>
         <v>191704.8</v>
       </c>
-      <c r="S55" s="10">
+      <c r="S55" s="17">
         <f t="shared" si="15"/>
         <v>207273.59999999998</v>
       </c>
-      <c r="T55" s="10">
+      <c r="T55" s="17">
         <f t="shared" si="16"/>
         <v>254074.80000000002</v>
       </c>
-      <c r="U55" s="15">
+      <c r="U55" s="12">
         <f t="shared" si="16"/>
         <v>218768.27999999997</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="2" t="s">
         <v>64</v>
       </c>
@@ -4746,45 +4760,45 @@
       <c r="K56" s="3">
         <v>22668.18</v>
       </c>
-      <c r="M56" s="10">
+      <c r="M56" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N56" s="10">
+      <c r="N56" s="17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O56" s="10">
+      <c r="O56" s="17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P56" s="10">
+      <c r="P56" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="7">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R56" s="10">
+      <c r="R56" s="7">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S56" s="10">
+      <c r="S56" s="17">
         <f t="shared" si="15"/>
         <v>242484</v>
       </c>
-      <c r="T56" s="10">
+      <c r="T56" s="17">
         <f t="shared" si="16"/>
         <v>285199.19999999995</v>
       </c>
-      <c r="U56" s="10">
+      <c r="U56" s="17">
         <f t="shared" si="16"/>
         <v>272018.16000000003</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
@@ -4815,45 +4829,45 @@
       <c r="K57" s="3">
         <v>22647.58</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M57" s="17">
         <f t="shared" si="9"/>
         <v>87916.56</v>
       </c>
-      <c r="N57" s="10">
+      <c r="N57" s="17">
         <f t="shared" si="10"/>
         <v>99814.799999999988</v>
       </c>
-      <c r="O57" s="10">
+      <c r="O57" s="17">
         <f t="shared" si="11"/>
         <v>132360</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="17">
         <f t="shared" si="12"/>
         <v>153888</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="17">
         <f t="shared" si="13"/>
         <v>168143.93369099282</v>
       </c>
-      <c r="R57" s="10">
+      <c r="R57" s="17">
         <f t="shared" si="14"/>
         <v>205669.19999999998</v>
       </c>
-      <c r="S57" s="10">
+      <c r="S57" s="12">
         <f t="shared" si="15"/>
         <v>184684.79999999999</v>
       </c>
-      <c r="T57" s="10">
+      <c r="T57" s="17">
         <f t="shared" si="16"/>
         <v>270630</v>
       </c>
-      <c r="U57" s="10">
+      <c r="U57" s="17">
         <f t="shared" si="16"/>
         <v>271770.96000000002</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
@@ -4884,45 +4898,45 @@
       <c r="K58" s="3">
         <v>19848.04</v>
       </c>
-      <c r="M58" s="10">
+      <c r="M58" s="17">
         <f t="shared" si="9"/>
         <v>138649.20000000001</v>
       </c>
-      <c r="N58" s="10">
+      <c r="N58" s="17">
         <f t="shared" si="10"/>
         <v>157052.28</v>
       </c>
-      <c r="O58" s="10">
+      <c r="O58" s="17">
         <f t="shared" si="11"/>
         <v>136188</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="17">
         <f t="shared" si="12"/>
         <v>180780</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="17">
         <f t="shared" si="13"/>
         <v>237345.60699539279</v>
       </c>
-      <c r="R58" s="10">
+      <c r="R58" s="17">
         <f t="shared" si="14"/>
         <v>192364.79999999999</v>
       </c>
-      <c r="S58" s="10">
+      <c r="S58" s="17">
         <f t="shared" si="15"/>
         <v>217140</v>
       </c>
-      <c r="T58" s="10">
+      <c r="T58" s="17">
         <f t="shared" si="16"/>
         <v>256040.40000000002</v>
       </c>
-      <c r="U58" s="10">
+      <c r="U58" s="17">
         <f t="shared" si="16"/>
         <v>238176.48</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
@@ -4953,45 +4967,45 @@
       <c r="K59" s="3">
         <v>20718.240000000002</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M59" s="17">
         <f t="shared" si="9"/>
         <v>118617.84</v>
       </c>
-      <c r="N59" s="10">
+      <c r="N59" s="17">
         <f t="shared" si="10"/>
         <v>129465.72</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="17">
         <f t="shared" si="11"/>
         <v>169164</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="17">
         <f t="shared" si="12"/>
         <v>207276</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="17">
         <f t="shared" si="13"/>
         <v>200210.45337488042</v>
       </c>
-      <c r="R59" s="10">
+      <c r="R59" s="17">
         <f t="shared" si="14"/>
         <v>264207.59999999998</v>
       </c>
-      <c r="S59" s="10">
+      <c r="S59" s="17">
         <f t="shared" si="15"/>
         <v>311590.80000000005</v>
       </c>
-      <c r="T59" s="10">
+      <c r="T59" s="17">
         <f t="shared" si="16"/>
         <v>273808.80000000005</v>
       </c>
-      <c r="U59" s="10">
+      <c r="U59" s="17">
         <f t="shared" si="16"/>
         <v>248618.88</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
@@ -5022,45 +5036,45 @@
       <c r="K60" s="3">
         <v>21076.99</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M60" s="17">
         <f t="shared" si="9"/>
         <v>111471.12</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N60" s="17">
         <f t="shared" si="10"/>
         <v>120157.08</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O60" s="17">
         <f t="shared" si="11"/>
         <v>144996</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P60" s="17">
         <f t="shared" si="12"/>
         <v>165180</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="17">
         <f t="shared" si="13"/>
         <v>160929.4484430888</v>
       </c>
-      <c r="R60" s="10">
+      <c r="R60" s="17">
         <f t="shared" si="14"/>
         <v>215492.40000000002</v>
       </c>
-      <c r="S60" s="10">
+      <c r="S60" s="12">
         <f t="shared" si="15"/>
         <v>196051.20000000001</v>
       </c>
-      <c r="T60" s="10">
+      <c r="T60" s="17">
         <f t="shared" si="16"/>
         <v>251884.80000000002</v>
       </c>
-      <c r="U60" s="10">
+      <c r="U60" s="17">
         <f t="shared" si="16"/>
         <v>252923.88</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
@@ -5091,45 +5105,45 @@
       <c r="K61" s="3">
         <v>21175.279999999999</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M61" s="17">
         <f t="shared" si="9"/>
         <v>132009.36000000002</v>
       </c>
-      <c r="N61" s="10">
+      <c r="N61" s="17">
         <f t="shared" si="10"/>
         <v>137586.59999999998</v>
       </c>
-      <c r="O61" s="10">
+      <c r="O61" s="17">
         <f t="shared" si="11"/>
         <v>154524</v>
       </c>
-      <c r="P61" s="10">
+      <c r="P61" s="17">
         <f t="shared" si="12"/>
         <v>154620</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="17">
         <f t="shared" si="13"/>
         <v>173603.62822382519</v>
       </c>
-      <c r="R61" s="10">
+      <c r="R61" s="17">
         <f t="shared" si="14"/>
         <v>203745.59999999998</v>
       </c>
-      <c r="S61" s="10">
+      <c r="S61" s="17">
         <f t="shared" si="15"/>
         <v>216694.80000000002</v>
       </c>
-      <c r="T61" s="10">
+      <c r="T61" s="17">
         <f t="shared" si="16"/>
         <v>254478</v>
       </c>
-      <c r="U61" s="10">
+      <c r="U61" s="17">
         <f t="shared" si="16"/>
         <v>254103.36</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
@@ -5160,45 +5174,45 @@
       <c r="K62" s="3">
         <v>20137.939999999999</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M62" s="17">
         <f t="shared" si="9"/>
         <v>115702.68</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N62" s="17">
         <f t="shared" si="10"/>
         <v>122136</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O62" s="17">
         <f t="shared" si="11"/>
         <v>163752</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="17">
         <f t="shared" si="12"/>
         <v>189744</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="17">
         <f t="shared" si="13"/>
         <v>238142.84998136759</v>
       </c>
-      <c r="R62" s="10">
+      <c r="R62" s="17">
         <f t="shared" si="14"/>
         <v>305534.40000000002</v>
       </c>
-      <c r="S62" s="10">
+      <c r="S62" s="17">
         <f t="shared" si="15"/>
         <v>259725.59999999998</v>
       </c>
-      <c r="T62" s="10">
+      <c r="T62" s="17">
         <f t="shared" si="16"/>
         <v>222483.59999999998</v>
       </c>
-      <c r="U62" s="10">
+      <c r="U62" s="17">
         <f t="shared" si="16"/>
         <v>241655.27999999997</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
@@ -5229,45 +5243,45 @@
       <c r="K63" s="3">
         <v>19026.86</v>
       </c>
-      <c r="M63" s="10">
+      <c r="M63" s="17">
         <f t="shared" si="9"/>
         <v>113297.88</v>
       </c>
-      <c r="N63" s="10">
+      <c r="N63" s="17">
         <f t="shared" si="10"/>
         <v>117802.08</v>
       </c>
-      <c r="O63" s="10">
+      <c r="O63" s="17">
         <f t="shared" si="11"/>
         <v>130188</v>
       </c>
-      <c r="P63" s="10">
+      <c r="P63" s="17">
         <f t="shared" si="12"/>
         <v>141348</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="17">
         <f t="shared" si="13"/>
         <v>179183.90621500919</v>
       </c>
-      <c r="R63" s="10">
+      <c r="R63" s="17">
         <f t="shared" si="14"/>
         <v>242004</v>
       </c>
-      <c r="S63" s="10">
+      <c r="S63" s="17">
         <f t="shared" si="15"/>
         <v>246062.40000000002</v>
       </c>
-      <c r="T63" s="10">
+      <c r="T63" s="17">
         <f t="shared" si="16"/>
         <v>239884.80000000002</v>
       </c>
-      <c r="U63" s="15">
+      <c r="U63" s="12">
         <f t="shared" si="16"/>
         <v>228322.32</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="2" t="s">
         <v>72</v>
       </c>
@@ -5298,45 +5312,45 @@
       <c r="K64" s="3">
         <v>14263.81</v>
       </c>
-      <c r="M64" s="10">
+      <c r="M64" s="17">
         <f t="shared" si="9"/>
         <v>104836.32</v>
       </c>
-      <c r="N64" s="10">
+      <c r="N64" s="17">
         <f t="shared" si="10"/>
         <v>106893.72</v>
       </c>
-      <c r="O64" s="10">
+      <c r="O64" s="17">
         <f t="shared" si="11"/>
         <v>149340</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="17">
         <f t="shared" si="12"/>
         <v>150084</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="17">
         <f t="shared" si="13"/>
         <v>140972.4839053608</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="17">
         <f t="shared" si="14"/>
         <v>207514.80000000002</v>
       </c>
-      <c r="S64" s="10">
+      <c r="S64" s="12">
         <f t="shared" si="15"/>
         <v>167053.20000000001</v>
       </c>
-      <c r="T64" s="10">
+      <c r="T64" s="12">
         <f t="shared" si="16"/>
         <v>185419.2</v>
       </c>
-      <c r="U64" s="15">
+      <c r="U64" s="12">
         <f t="shared" si="16"/>
         <v>171165.72</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="2" t="s">
         <v>73</v>
       </c>
@@ -5367,45 +5381,45 @@
       <c r="K65" s="3">
         <v>17819.560000000001</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M65" s="17">
         <f t="shared" si="9"/>
         <v>122725.20000000001</v>
       </c>
-      <c r="N65" s="10">
+      <c r="N65" s="17">
         <f t="shared" si="10"/>
         <v>107657.28</v>
       </c>
-      <c r="O65" s="10">
+      <c r="O65" s="17">
         <f t="shared" si="11"/>
         <v>135540</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="17">
         <f t="shared" si="12"/>
         <v>143484</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="17">
         <f t="shared" si="13"/>
         <v>200151.20361721559</v>
       </c>
-      <c r="R65" s="10">
+      <c r="R65" s="17">
         <f t="shared" si="14"/>
         <v>183914.40000000002</v>
       </c>
-      <c r="S65" s="10">
+      <c r="S65" s="17">
         <f t="shared" si="15"/>
         <v>202250.40000000002</v>
       </c>
-      <c r="T65" s="10">
+      <c r="T65" s="17">
         <f t="shared" si="16"/>
         <v>231370.80000000002</v>
       </c>
-      <c r="U65" s="15">
+      <c r="U65" s="12">
         <f t="shared" si="16"/>
         <v>213834.72000000003</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="2" t="s">
         <v>74</v>
       </c>
@@ -5436,45 +5450,45 @@
       <c r="K66" s="3">
         <v>15834.42</v>
       </c>
-      <c r="M66" s="10">
+      <c r="M66" s="17">
         <f t="shared" si="9"/>
         <v>91351.200000000012</v>
       </c>
-      <c r="N66" s="10">
+      <c r="N66" s="17">
         <f t="shared" si="10"/>
         <v>98021.040000000008</v>
       </c>
-      <c r="O66" s="10">
+      <c r="O66" s="17">
         <f t="shared" si="11"/>
         <v>119124</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="12">
         <f t="shared" si="12"/>
         <v>120108</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="17">
         <f t="shared" si="13"/>
         <v>154302.7480324092</v>
       </c>
-      <c r="R66" s="10">
+      <c r="R66" s="12">
         <f t="shared" si="14"/>
         <v>168640.8</v>
       </c>
-      <c r="S66" s="10">
+      <c r="S66" s="12">
         <f t="shared" si="15"/>
         <v>171724.79999999999</v>
       </c>
-      <c r="T66" s="10">
+      <c r="T66" s="17">
         <f t="shared" si="16"/>
         <v>189652.8</v>
       </c>
-      <c r="U66" s="15">
+      <c r="U66" s="12">
         <f t="shared" si="16"/>
         <v>190013.04</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="2" t="s">
         <v>75</v>
       </c>
@@ -5505,126 +5519,126 @@
       <c r="K67" s="3">
         <v>20439.560000000001</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M67" s="17">
         <f t="shared" si="9"/>
         <v>110837.04000000001</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N67" s="17">
         <f t="shared" si="10"/>
         <v>111408.59999999999</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O67" s="17">
         <f t="shared" si="11"/>
         <v>161964</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="17">
         <f t="shared" si="12"/>
         <v>160872</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="17">
         <f t="shared" si="13"/>
         <v>208437.37935175322</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R67" s="17">
         <f t="shared" si="14"/>
         <v>228580.80000000002</v>
       </c>
-      <c r="S67" s="10">
+      <c r="S67" s="17">
         <f t="shared" si="15"/>
         <v>197932.80000000002</v>
       </c>
-      <c r="T67" s="10">
+      <c r="T67" s="17">
         <f t="shared" si="16"/>
         <v>274436.40000000002</v>
       </c>
-      <c r="U67" s="10">
+      <c r="U67" s="17">
         <f t="shared" si="16"/>
         <v>245274.72000000003</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="10">
         <f>AVERAGE(C69:C82)</f>
         <v>12824.098571428569</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="10">
         <f t="shared" ref="D68:U68" si="19">AVERAGE(D69:D82)</f>
         <v>14803.972142857141</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="10">
         <f t="shared" si="19"/>
         <v>18443.214285714286</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="10">
         <f t="shared" si="19"/>
         <v>19410</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="10">
         <f t="shared" si="19"/>
         <v>21904.916885259667</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="10">
         <f t="shared" si="19"/>
         <v>26167.550000000007</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="10">
         <f t="shared" si="19"/>
         <v>27185.299999999996</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="10">
         <f t="shared" si="19"/>
         <v>25209.007142857143</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="10">
         <f t="shared" si="19"/>
         <v>25819.12142857143</v>
       </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13">
+      <c r="L68" s="10"/>
+      <c r="M68" s="10">
         <f t="shared" si="19"/>
         <v>153889.18285714291</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="10">
         <f t="shared" si="19"/>
         <v>177647.66571428571</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="10">
         <f t="shared" si="19"/>
         <v>221318.57142857142</v>
       </c>
-      <c r="P68" s="13">
+      <c r="P68" s="10">
         <f t="shared" si="19"/>
         <v>232920</v>
       </c>
-      <c r="Q68" s="13">
+      <c r="Q68" s="10">
         <f t="shared" si="19"/>
         <v>262859.00262311596</v>
       </c>
-      <c r="R68" s="13">
+      <c r="R68" s="10">
         <f t="shared" si="19"/>
         <v>314010.60000000003</v>
       </c>
-      <c r="S68" s="13">
+      <c r="S68" s="10">
         <f t="shared" si="19"/>
         <v>326223.59999999998</v>
       </c>
-      <c r="T68" s="13">
+      <c r="T68" s="10">
         <f t="shared" si="19"/>
         <v>302508.08571428573</v>
       </c>
-      <c r="U68" s="13">
+      <c r="U68" s="10">
         <f t="shared" si="19"/>
         <v>309829.45714285719</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5657,45 +5671,45 @@
       <c r="K69" s="3">
         <v>26239.27</v>
       </c>
-      <c r="M69" s="10">
+      <c r="M69" s="17">
         <f t="shared" si="9"/>
         <v>147809.16</v>
       </c>
-      <c r="N69" s="10">
+      <c r="N69" s="17">
         <f t="shared" si="10"/>
         <v>168944.52</v>
       </c>
-      <c r="O69" s="10">
+      <c r="O69" s="17">
         <f t="shared" si="11"/>
         <v>208524</v>
       </c>
-      <c r="P69" s="10">
+      <c r="P69" s="17">
         <f t="shared" si="12"/>
         <v>217044</v>
       </c>
-      <c r="Q69" s="10">
+      <c r="Q69" s="17">
         <f t="shared" si="13"/>
         <v>279550.67143594084</v>
       </c>
-      <c r="R69" s="10">
+      <c r="R69" s="17">
         <f t="shared" si="14"/>
         <v>359644.80000000005</v>
       </c>
-      <c r="S69" s="10">
+      <c r="S69" s="17">
         <f t="shared" si="15"/>
         <v>329746.80000000005</v>
       </c>
-      <c r="T69" s="10">
+      <c r="T69" s="17">
         <f t="shared" si="16"/>
         <v>301488</v>
       </c>
-      <c r="U69" s="10">
+      <c r="U69" s="17">
         <f t="shared" si="16"/>
         <v>314871.24</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="2" t="s">
         <v>78</v>
       </c>
@@ -5726,45 +5740,45 @@
       <c r="K70" s="3">
         <v>34052.870000000003</v>
       </c>
-      <c r="M70" s="10">
+      <c r="M70" s="17">
         <f t="shared" si="9"/>
         <v>159814.32</v>
       </c>
-      <c r="N70" s="10">
+      <c r="N70" s="17">
         <f t="shared" si="10"/>
         <v>202523.51999999999</v>
       </c>
-      <c r="O70" s="10">
+      <c r="O70" s="17">
         <f t="shared" si="11"/>
         <v>221352</v>
       </c>
-      <c r="P70" s="10">
+      <c r="P70" s="17">
         <f t="shared" si="12"/>
         <v>226224</v>
       </c>
-      <c r="Q70" s="10">
+      <c r="Q70" s="17">
         <f t="shared" si="13"/>
         <v>283768.41992161918</v>
       </c>
-      <c r="R70" s="10">
+      <c r="R70" s="17">
         <f t="shared" si="14"/>
         <v>400203.60000000003</v>
       </c>
-      <c r="S70" s="10">
+      <c r="S70" s="17">
         <f t="shared" si="15"/>
         <v>327309.59999999998</v>
       </c>
-      <c r="T70" s="10">
+      <c r="T70" s="17">
         <f t="shared" si="16"/>
         <v>372138</v>
       </c>
-      <c r="U70" s="10">
+      <c r="U70" s="17">
         <f t="shared" si="16"/>
         <v>408634.44000000006</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="2" t="s">
         <v>79</v>
       </c>
@@ -5795,45 +5809,45 @@
       <c r="K71" s="3">
         <v>24631.91</v>
       </c>
-      <c r="M71" s="10">
+      <c r="M71" s="17">
         <f t="shared" ref="M71:M82" si="20">C71*12</f>
         <v>149134.20000000001</v>
       </c>
-      <c r="N71" s="10">
+      <c r="N71" s="17">
         <f t="shared" ref="N71:N82" si="21">D71*12</f>
         <v>203580.24</v>
       </c>
-      <c r="O71" s="10">
+      <c r="O71" s="17">
         <f t="shared" ref="O71:O82" si="22">E71*12</f>
         <v>304188</v>
       </c>
-      <c r="P71" s="10">
+      <c r="P71" s="17">
         <f t="shared" ref="P71:P82" si="23">F71*12</f>
         <v>266532</v>
       </c>
-      <c r="Q71" s="10">
+      <c r="Q71" s="17">
         <f t="shared" ref="Q71:Q82" si="24">G71*12</f>
         <v>268270.13331251638</v>
       </c>
-      <c r="R71" s="10">
+      <c r="R71" s="17">
         <f t="shared" ref="R71:R82" si="25">H71*12</f>
         <v>293644.80000000005</v>
       </c>
-      <c r="S71" s="10">
+      <c r="S71" s="17">
         <f t="shared" ref="S71:S82" si="26">I71*12</f>
         <v>314012.40000000002</v>
       </c>
-      <c r="T71" s="10">
+      <c r="T71" s="17">
         <f t="shared" ref="T71:U82" si="27">J71*12</f>
         <v>346107.6</v>
       </c>
-      <c r="U71" s="10">
+      <c r="U71" s="17">
         <f t="shared" si="27"/>
         <v>295582.92</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="2" t="s">
         <v>80</v>
       </c>
@@ -5864,45 +5878,45 @@
       <c r="K72" s="3">
         <v>39593.56</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M72" s="17">
         <f t="shared" si="20"/>
         <v>316352.40000000002</v>
       </c>
-      <c r="N72" s="10">
+      <c r="N72" s="17">
         <f t="shared" si="21"/>
         <v>300983.52</v>
       </c>
-      <c r="O72" s="10">
+      <c r="O72" s="17">
         <f t="shared" si="22"/>
         <v>307560</v>
       </c>
-      <c r="P72" s="10">
+      <c r="P72" s="17">
         <f t="shared" si="23"/>
         <v>301008</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q72" s="17">
         <f t="shared" si="24"/>
         <v>342176.81205354718</v>
       </c>
-      <c r="R72" s="10">
+      <c r="R72" s="17">
         <f t="shared" si="25"/>
         <v>312576</v>
       </c>
-      <c r="S72" s="10">
+      <c r="S72" s="17">
         <f t="shared" si="26"/>
         <v>382288.80000000005</v>
       </c>
-      <c r="T72" s="10">
+      <c r="T72" s="17">
         <f t="shared" si="27"/>
         <v>377996.4</v>
       </c>
-      <c r="U72" s="10">
+      <c r="U72" s="17">
         <f t="shared" si="27"/>
         <v>475122.72</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
         <v>81</v>
       </c>
@@ -5933,45 +5947,45 @@
       <c r="K73" s="3">
         <v>38025.69</v>
       </c>
-      <c r="M73" s="10">
+      <c r="M73" s="17">
         <f t="shared" si="20"/>
         <v>168671.04</v>
       </c>
-      <c r="N73" s="10">
+      <c r="N73" s="17">
         <f t="shared" si="21"/>
         <v>193803.48</v>
       </c>
-      <c r="O73" s="10">
+      <c r="O73" s="17">
         <f t="shared" si="22"/>
         <v>260964</v>
       </c>
-      <c r="P73" s="10">
+      <c r="P73" s="17">
         <f t="shared" si="23"/>
         <v>314484</v>
       </c>
-      <c r="Q73" s="10">
+      <c r="Q73" s="17">
         <f t="shared" si="24"/>
         <v>367248</v>
       </c>
-      <c r="R73" s="10">
+      <c r="R73" s="17">
         <f t="shared" si="25"/>
         <v>412999.19999999995</v>
       </c>
-      <c r="S73" s="10">
+      <c r="S73" s="17">
         <f t="shared" si="26"/>
         <v>442374</v>
       </c>
-      <c r="T73" s="10">
+      <c r="T73" s="17">
         <f t="shared" si="27"/>
         <v>437587.19999999995</v>
       </c>
-      <c r="U73" s="10">
+      <c r="U73" s="17">
         <f t="shared" si="27"/>
         <v>456308.28</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>82</v>
       </c>
@@ -6002,45 +6016,45 @@
       <c r="K74" s="3">
         <v>23832.6</v>
       </c>
-      <c r="M74" s="10">
+      <c r="M74" s="17">
         <f t="shared" si="20"/>
         <v>129183.59999999999</v>
       </c>
-      <c r="N74" s="10">
+      <c r="N74" s="17">
         <f t="shared" si="21"/>
         <v>171930.23999999999</v>
       </c>
-      <c r="O74" s="10">
+      <c r="O74" s="17">
         <f t="shared" si="22"/>
         <v>224148</v>
       </c>
-      <c r="P74" s="10">
+      <c r="P74" s="17">
         <f t="shared" si="23"/>
         <v>259440</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="17">
         <f t="shared" si="24"/>
         <v>231288</v>
       </c>
-      <c r="R74" s="10">
+      <c r="R74" s="17">
         <f t="shared" si="25"/>
         <v>312584.40000000002</v>
       </c>
-      <c r="S74" s="10">
+      <c r="S74" s="17">
         <f t="shared" si="26"/>
         <v>387501.6</v>
       </c>
-      <c r="T74" s="10">
+      <c r="T74" s="17">
         <f t="shared" si="27"/>
         <v>264416.40000000002</v>
       </c>
-      <c r="U74" s="10">
+      <c r="U74" s="17">
         <f t="shared" si="27"/>
         <v>285991.19999999995</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
         <v>83</v>
       </c>
@@ -6071,45 +6085,45 @@
       <c r="K75" s="3">
         <v>28758.67</v>
       </c>
-      <c r="M75" s="10">
+      <c r="M75" s="17">
         <f t="shared" si="20"/>
         <v>131058.36000000002</v>
       </c>
-      <c r="N75" s="10">
+      <c r="N75" s="17">
         <f t="shared" si="21"/>
         <v>137788.91999999998</v>
       </c>
-      <c r="O75" s="10">
+      <c r="O75" s="17">
         <f t="shared" si="22"/>
         <v>206928</v>
       </c>
-      <c r="P75" s="10">
+      <c r="P75" s="17">
         <f t="shared" si="23"/>
         <v>228036</v>
       </c>
-      <c r="Q75" s="10">
+      <c r="Q75" s="17">
         <f t="shared" si="24"/>
         <v>302148</v>
       </c>
-      <c r="R75" s="10">
+      <c r="R75" s="17">
         <f t="shared" si="25"/>
         <v>336258</v>
       </c>
-      <c r="S75" s="10">
+      <c r="S75" s="17">
         <f t="shared" si="26"/>
         <v>330482.40000000002</v>
       </c>
-      <c r="T75" s="10">
+      <c r="T75" s="17">
         <f t="shared" si="27"/>
         <v>351673.19999999995</v>
       </c>
-      <c r="U75" s="10">
+      <c r="U75" s="17">
         <f t="shared" si="27"/>
         <v>345104.04</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
@@ -6140,45 +6154,45 @@
       <c r="K76" s="3">
         <v>26702.74</v>
       </c>
-      <c r="M76" s="10">
+      <c r="M76" s="17">
         <f t="shared" si="20"/>
         <v>170306.16</v>
       </c>
-      <c r="N76" s="10">
+      <c r="N76" s="17">
         <f t="shared" si="21"/>
         <v>185767.32</v>
       </c>
-      <c r="O76" s="10">
+      <c r="O76" s="17">
         <f t="shared" si="22"/>
         <v>265116</v>
       </c>
-      <c r="P76" s="10">
+      <c r="P76" s="17">
         <f t="shared" si="23"/>
         <v>268104</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="Q76" s="17">
         <f t="shared" si="24"/>
         <v>328272</v>
       </c>
-      <c r="R76" s="10">
+      <c r="R76" s="17">
         <f t="shared" si="25"/>
         <v>320534.40000000002</v>
       </c>
-      <c r="S76" s="10">
+      <c r="S76" s="17">
         <f t="shared" si="26"/>
         <v>321889.19999999995</v>
       </c>
-      <c r="T76" s="10">
+      <c r="T76" s="17">
         <f t="shared" si="27"/>
         <v>331918.80000000005</v>
       </c>
-      <c r="U76" s="10">
+      <c r="U76" s="17">
         <f t="shared" si="27"/>
         <v>320432.88</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="2" t="s">
         <v>85</v>
       </c>
@@ -6209,45 +6223,45 @@
       <c r="K77" s="3">
         <v>22614.49</v>
       </c>
-      <c r="M77" s="10">
+      <c r="M77" s="17">
         <f t="shared" si="20"/>
         <v>152422.68</v>
       </c>
-      <c r="N77" s="10">
+      <c r="N77" s="17">
         <f t="shared" si="21"/>
         <v>141911.16</v>
       </c>
-      <c r="O77" s="10">
+      <c r="O77" s="17">
         <f t="shared" si="22"/>
         <v>171684</v>
       </c>
-      <c r="P77" s="10">
+      <c r="P77" s="17">
         <f t="shared" si="23"/>
         <v>207936</v>
       </c>
-      <c r="Q77" s="10">
+      <c r="Q77" s="17">
         <f t="shared" si="24"/>
         <v>248340</v>
       </c>
-      <c r="R77" s="10">
+      <c r="R77" s="17">
         <f t="shared" si="25"/>
         <v>252561.59999999998</v>
       </c>
-      <c r="S77" s="10">
+      <c r="S77" s="17">
         <f t="shared" si="26"/>
         <v>304795.19999999995</v>
       </c>
-      <c r="T77" s="10">
+      <c r="T77" s="17">
         <f t="shared" si="27"/>
         <v>278502</v>
       </c>
-      <c r="U77" s="10">
+      <c r="U77" s="17">
         <f t="shared" si="27"/>
         <v>271373.88</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="2" t="s">
         <v>86</v>
       </c>
@@ -6278,45 +6292,45 @@
       <c r="K78" s="3">
         <v>21813.89</v>
       </c>
-      <c r="M78" s="10">
+      <c r="M78" s="17">
         <f t="shared" si="20"/>
         <v>171980.52</v>
       </c>
-      <c r="N78" s="10">
+      <c r="N78" s="17">
         <f t="shared" si="21"/>
         <v>204459</v>
       </c>
-      <c r="O78" s="10">
+      <c r="O78" s="17">
         <f t="shared" si="22"/>
         <v>249612</v>
       </c>
-      <c r="P78" s="10">
+      <c r="P78" s="17">
         <f t="shared" si="23"/>
         <v>283800</v>
       </c>
-      <c r="Q78" s="10">
+      <c r="Q78" s="17">
         <f t="shared" si="24"/>
         <v>263904</v>
       </c>
-      <c r="R78" s="10">
+      <c r="R78" s="17">
         <f t="shared" si="25"/>
         <v>434942.39999999997</v>
       </c>
-      <c r="S78" s="10">
+      <c r="S78" s="17">
         <f t="shared" si="26"/>
         <v>399238.80000000005</v>
       </c>
-      <c r="T78" s="10">
+      <c r="T78" s="17">
         <f t="shared" si="27"/>
         <v>279709.19999999995</v>
       </c>
-      <c r="U78" s="10">
+      <c r="U78" s="17">
         <f t="shared" si="27"/>
         <v>261766.68</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="2" t="s">
         <v>87</v>
       </c>
@@ -6347,45 +6361,45 @@
       <c r="K79" s="3">
         <v>20508.68</v>
       </c>
-      <c r="M79" s="10">
+      <c r="M79" s="17">
         <f t="shared" si="20"/>
         <v>129844.79999999999</v>
       </c>
-      <c r="N79" s="10">
+      <c r="N79" s="17">
         <f t="shared" si="21"/>
         <v>179814.36000000002</v>
       </c>
-      <c r="O79" s="10">
+      <c r="O79" s="17">
         <f t="shared" si="22"/>
         <v>216540</v>
       </c>
-      <c r="P79" s="10">
+      <c r="P79" s="17">
         <f t="shared" si="23"/>
         <v>224040</v>
       </c>
-      <c r="Q79" s="10">
+      <c r="Q79" s="17">
         <f t="shared" si="24"/>
         <v>232572</v>
       </c>
-      <c r="R79" s="10">
+      <c r="R79" s="17">
         <f t="shared" si="25"/>
         <v>302422.80000000005</v>
       </c>
-      <c r="S79" s="10">
+      <c r="S79" s="17">
         <f t="shared" si="26"/>
         <v>314031.59999999998</v>
       </c>
-      <c r="T79" s="10">
+      <c r="T79" s="17">
         <f t="shared" si="27"/>
         <v>257739.59999999998</v>
       </c>
-      <c r="U79" s="10">
+      <c r="U79" s="17">
         <f t="shared" si="27"/>
         <v>246104.16</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
         <v>88</v>
       </c>
@@ -6416,45 +6430,45 @@
       <c r="K80" s="3">
         <v>19495.509999999998</v>
       </c>
-      <c r="M80" s="10">
+      <c r="M80" s="17">
         <f t="shared" si="20"/>
         <v>116423.51999999999</v>
       </c>
-      <c r="N80" s="10">
+      <c r="N80" s="17">
         <f t="shared" si="21"/>
         <v>142046.51999999999</v>
       </c>
-      <c r="O80" s="10">
+      <c r="O80" s="17">
         <f t="shared" si="22"/>
         <v>150564</v>
       </c>
-      <c r="P80" s="10">
+      <c r="P80" s="17">
         <f t="shared" si="23"/>
         <v>142080</v>
       </c>
-      <c r="Q80" s="10">
+      <c r="Q80" s="17">
         <f t="shared" si="24"/>
         <v>162132</v>
       </c>
-      <c r="R80" s="10">
+      <c r="R80" s="17">
         <f t="shared" si="25"/>
         <v>193458</v>
       </c>
-      <c r="S80" s="10">
+      <c r="S80" s="17">
         <f t="shared" si="26"/>
         <v>242389.19999999998</v>
       </c>
-      <c r="T80" s="10">
+      <c r="T80" s="17">
         <f t="shared" si="27"/>
         <v>210156</v>
       </c>
-      <c r="U80" s="10">
+      <c r="U80" s="17">
         <f t="shared" si="27"/>
         <v>233946.12</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>89</v>
       </c>
@@ -6485,45 +6499,45 @@
       <c r="K81" s="3">
         <v>18018.21</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M81" s="17">
         <f t="shared" si="20"/>
         <v>120211.79999999999</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N81" s="17">
         <f t="shared" si="21"/>
         <v>142636.56</v>
       </c>
-      <c r="O81" s="10">
+      <c r="O81" s="17">
         <f t="shared" si="22"/>
         <v>172248</v>
       </c>
-      <c r="P81" s="10">
+      <c r="P81" s="17">
         <f t="shared" si="23"/>
         <v>164376</v>
       </c>
-      <c r="Q81" s="10">
+      <c r="Q81" s="17">
         <f t="shared" si="24"/>
         <v>235428</v>
       </c>
-      <c r="R81" s="10">
+      <c r="R81" s="17">
         <f t="shared" si="25"/>
         <v>262305.59999999998</v>
       </c>
-      <c r="S81" s="10">
+      <c r="S81" s="17">
         <f t="shared" si="26"/>
         <v>269797.19999999995</v>
       </c>
-      <c r="T81" s="10">
+      <c r="T81" s="17">
         <f t="shared" si="27"/>
         <v>187005.59999999998</v>
       </c>
-      <c r="U81" s="15">
+      <c r="U81" s="12">
         <f t="shared" si="27"/>
         <v>216218.52</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="2" t="s">
         <v>90</v>
       </c>
@@ -6554,39 +6568,39 @@
       <c r="K82" s="3">
         <v>17179.61</v>
       </c>
-      <c r="M82" s="10">
+      <c r="M82" s="17">
         <f t="shared" si="20"/>
         <v>91236</v>
       </c>
-      <c r="N82" s="10">
+      <c r="N82" s="17">
         <f t="shared" si="21"/>
         <v>110877.95999999999</v>
       </c>
-      <c r="O82" s="10">
+      <c r="O82" s="17">
         <f t="shared" si="22"/>
         <v>139032</v>
       </c>
-      <c r="P82" s="10">
+      <c r="P82" s="17">
         <f t="shared" si="23"/>
         <v>157776</v>
       </c>
-      <c r="Q82" s="10">
+      <c r="Q82" s="17">
         <f t="shared" si="24"/>
         <v>134928</v>
       </c>
-      <c r="R82" s="10">
+      <c r="R82" s="17">
         <f t="shared" si="25"/>
         <v>202012.80000000002</v>
       </c>
-      <c r="S82" s="10">
+      <c r="S82" s="17">
         <f t="shared" si="26"/>
         <v>201273.59999999998</v>
       </c>
-      <c r="T82" s="10">
+      <c r="T82" s="17">
         <f t="shared" si="27"/>
         <v>238675.19999999998</v>
       </c>
-      <c r="U82" s="15">
+      <c r="U82" s="12">
         <f t="shared" si="27"/>
         <v>206155.32</v>
       </c>
